--- a/part3/schedules/schedule.xlsx
+++ b/part3/schedules/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D32AAF-F7D1-F44C-9EF1-4D96508D657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800B0D81-0D12-3D45-940F-134C3EBF4D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6CA359A0-EFD9-D545-ACF8-E8CF4E71FFDD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>node-a-2core</t>
   </si>
@@ -443,7 +443,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,18 +456,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1">
         <f>SUM(G2:G9)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1">
         <v>14</v>
       </c>
       <c r="I1">
         <f>MAX(I2:I9)</f>
-        <v>187</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -499,9 +499,6 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -517,16 +514,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -534,7 +531,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -560,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>90</v>
@@ -597,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>108</v>
@@ -622,17 +619,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
